--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7300</v>
+        <v>5272</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -519,7 +519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,67 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ENGATIVÁ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PDM LAS FERIAS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>externo</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>808</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ENDULZANTES</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PANELA</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>3244</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Lb</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>BOLSA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -7,15 +7,100 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen PMD" sheetId="1" r:id="rId1"/>
+    <sheet name="Precios SDDE" sheetId="2" r:id="rId2"/>
+    <sheet name="PDM QUIRIGUA" sheetId="3" r:id="rId3"/>
+    <sheet name="PDM SAMPER MENDOZA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+  <si>
+    <t>PDM</t>
+  </si>
+  <si>
+    <t>$Tienda</t>
+  </si>
+  <si>
+    <t>$PM</t>
+  </si>
+  <si>
+    <t>Diferencia (Tienda - Plaza)</t>
+  </si>
+  <si>
+    <t>Represent %</t>
+  </si>
+  <si>
+    <t>PDM QUIRIGUA</t>
+  </si>
+  <si>
+    <t>PDM SAMPER MENDOZA</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>BANANO</t>
+  </si>
+  <si>
+    <t>CADERA</t>
+  </si>
+  <si>
+    <t>CANAL</t>
+  </si>
+  <si>
+    <t>FALDA</t>
+  </si>
+  <si>
+    <t>HUEVOS</t>
+  </si>
+  <si>
+    <t>LECHE</t>
+  </si>
+  <si>
+    <t>PAPAYA</t>
+  </si>
+  <si>
+    <t>QUESO</t>
+  </si>
+  <si>
+    <t>Fecha de aplicación</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>CÁRNICOS</t>
+  </si>
+  <si>
+    <t>LÁCTEOS</t>
+  </si>
+  <si>
+    <t>Suma total</t>
+  </si>
+  <si>
+    <t>Tiendas</t>
+  </si>
+  <si>
+    <t>FRUTAS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +108,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +139,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +464,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-21000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>108000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>108000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4">
+        <v>46011</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4">
+        <v>46016</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6">
+        <v>21000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>PDM</t>
   </si>
@@ -40,6 +40,9 @@
     <t>PDM SAMPER MENDOZA</t>
   </si>
   <si>
+    <t>PDM TRINIDAD GALAN</t>
+  </si>
+  <si>
     <t>Promedio</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>CANAL</t>
+  </si>
+  <si>
+    <t>COSTILLA</t>
   </si>
   <si>
     <t>FALDA</t>
@@ -464,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,8 +535,25 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
       <c r="C4" s="1">
-        <v>21000</v>
+        <v>8000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>29000</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:XFD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -555,66 +578,77 @@
     <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>46011</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>12000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>5000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
+        <v>46012</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
         <v>46016</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>12000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>23000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>30000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="1">
         <v>34000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I4" s="1">
         <v>9000</v>
       </c>
     </row>
@@ -638,10 +672,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -649,10 +683,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>12000</v>
@@ -660,10 +694,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
@@ -671,10 +705,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>4000</v>
@@ -682,7 +716,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6">
         <v>21000</v>
@@ -711,21 +745,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>12000</v>
@@ -733,10 +767,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>9000</v>
@@ -744,7 +778,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>

--- a/Reporte_Comparativo.xlsx
+++ b/Reporte_Comparativo.xlsx
@@ -10,17 +10,16 @@
     <sheet name="Resumen PMD" sheetId="1" r:id="rId1"/>
     <sheet name="Precios SDDE" sheetId="2" r:id="rId2"/>
     <sheet name="PDM QUIRIGUA" sheetId="3" r:id="rId3"/>
-    <sheet name="PDM SAMPER MENDOZA" sheetId="4" r:id="rId4"/>
-    <sheet name="PDM LA CONCORDIA" sheetId="5" r:id="rId5"/>
-    <sheet name="PDM 20 DE JULIO" sheetId="6" r:id="rId6"/>
-    <sheet name="PDM KENNEDY" sheetId="7" r:id="rId7"/>
+    <sheet name="PDM LA CONCORDIA" sheetId="4" r:id="rId4"/>
+    <sheet name="PDM 20 DE JULIO" sheetId="5" r:id="rId5"/>
+    <sheet name="PDM KENNEDY" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>PDM</t>
   </si>
@@ -49,9 +48,6 @@
     <t>PDM QUIRIGUA</t>
   </si>
   <si>
-    <t>PDM SAMPER MENDOZA</t>
-  </si>
-  <si>
     <t>PDM TRINIDAD GALAN</t>
   </si>
   <si>
@@ -61,27 +57,15 @@
     <t>ACEITE</t>
   </si>
   <si>
-    <t>BANANO</t>
-  </si>
-  <si>
-    <t>CADERA</t>
-  </si>
-  <si>
     <t>CAFÉ</t>
   </si>
   <si>
-    <t>CANAL</t>
-  </si>
-  <si>
     <t>CHOCOLATE</t>
   </si>
   <si>
     <t>COSTILLA</t>
   </si>
   <si>
-    <t>FALDA</t>
-  </si>
-  <si>
     <t>HARINA</t>
   </si>
   <si>
@@ -94,9 +78,6 @@
     <t>MANTEQUILLA</t>
   </si>
   <si>
-    <t>PAPAYA</t>
-  </si>
-  <si>
     <t>PASTA</t>
   </si>
   <si>
@@ -128,9 +109,6 @@
   </si>
   <si>
     <t>Suma total</t>
-  </si>
-  <si>
-    <t>FRUTAS</t>
   </si>
   <si>
     <t>OTROS</t>
@@ -512,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,40 +590,23 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C6" s="1">
-        <v>108000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>108000</v>
+        <v>-8000</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-8000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B9" s="1">
         <v>40000</v>
       </c>
     </row>
@@ -656,7 +617,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD6"/>
+  <dimension ref="A1:XFD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -671,129 +632,94 @@
     <col min="2" max="16384" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>46003</v>
       </c>
       <c r="B2" s="1">
         <v>9000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="C2" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>46011</v>
       </c>
-      <c r="E3" s="1">
+      <c r="C3" s="1">
         <v>32000</v>
       </c>
+      <c r="D3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2000</v>
+      </c>
       <c r="G3" s="1">
-        <v>20000</v>
+        <v>12000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5000</v>
       </c>
       <c r="J3" s="1">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="K3" s="1">
-        <v>12000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="O3" s="1">
-        <v>9000</v>
-      </c>
-      <c r="P3" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>46012</v>
       </c>
-      <c r="H4" s="1">
+      <c r="E4" s="1">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
-        <v>46016</v>
+        <v>46018</v>
       </c>
       <c r="C5" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>23000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30000</v>
+        <v>8399</v>
       </c>
       <c r="I5" s="1">
-        <v>34000</v>
-      </c>
-      <c r="N5" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="4">
-        <v>46018</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8399</v>
-      </c>
-      <c r="M6" s="1">
         <v>9000</v>
       </c>
     </row>
@@ -817,30 +743,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>12000</v>
@@ -857,10 +783,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>5000</v>
@@ -877,10 +803,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>4000</v>
@@ -897,7 +823,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6">
         <v>21000</v>
@@ -912,6 +838,204 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>32000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>32000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>63000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8399</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8399</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -926,354 +1050,67 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="D2" s="1">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>12000</v>
+        <v>-9000</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D3" s="1">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>9000</v>
+        <v>-2000</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>21000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>32000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>63000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8399</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8399</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8399</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-9000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C4" s="6">
         <v>11000</v>
